--- a/data/grafici.xlsx
+++ b/data/grafici.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/data/cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{2F9CFC0A-3EFD-4048-9381-D422DA6919F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F335C595-3083-4C55-8157-5909B3FF945D}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="8_{2F9CFC0A-3EFD-4048-9381-D422DA6919F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C40260B-9421-465D-BB2B-00C25C49A837}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{8A807B85-0DD6-4ACE-88C6-8E5268F08FFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{8A807B85-0DD6-4ACE-88C6-8E5268F08FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="trapianti" sheetId="4" r:id="rId1"/>
     <sheet name="reneging" sheetId="6" r:id="rId2"/>
     <sheet name="patients" sheetId="7" r:id="rId3"/>
     <sheet name="organs" sheetId="8" r:id="rId4"/>
-    <sheet name="trapiantiVSreneging" sheetId="9" r:id="rId5"/>
-    <sheet name="trapiantiVSreneging_abo" sheetId="1" r:id="rId6"/>
+    <sheet name="trapiantiVSreneging_abo" sheetId="1" r:id="rId5"/>
+    <sheet name="trapiantiVSreneging" sheetId="9" r:id="rId6"/>
     <sheet name="arriviVSuscite_pazienti" sheetId="2" r:id="rId7"/>
     <sheet name="arriviPVSarriviO" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">trapiantiVSreneging!$A$1:$C$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">trapiantiVSreneging_abo!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">reneging!$A$1:$Y$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">trapiantiVSreneging!$A$1:$C$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">trapiantiVSreneging_abo!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -290,7 +291,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -467,7 +480,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -628,6 +653,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="790950928"/>
         <c:axId val="790951288"/>
@@ -926,7 +952,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1010,64 +1048,64 @@
                   <c:v>23778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14543</c:v>
+                  <c:v>24712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16982</c:v>
+                  <c:v>27453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18989</c:v>
+                  <c:v>29428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18325</c:v>
+                  <c:v>31594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17390</c:v>
+                  <c:v>32790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17645</c:v>
+                  <c:v>33055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18222</c:v>
+                  <c:v>34124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17941</c:v>
+                  <c:v>34813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10731</c:v>
+                  <c:v>33985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11181</c:v>
+                  <c:v>35313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11779</c:v>
+                  <c:v>36916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8409</c:v>
+                  <c:v>36650</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7027</c:v>
+                  <c:v>35400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6905</c:v>
+                  <c:v>35790</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7094</c:v>
+                  <c:v>35923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7418</c:v>
+                  <c:v>39189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3467</c:v>
+                  <c:v>41550</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3256</c:v>
+                  <c:v>36579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3908</c:v>
+                  <c:v>40629</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2278</c:v>
+                  <c:v>42782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1141,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1264,6 +1314,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="200438536"/>
         <c:axId val="195386920"/>
@@ -1529,7 +1580,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0384465830660058E-2"/>
+          <c:y val="0.11264998897517958"/>
+          <c:w val="0.92492417614464861"/>
+          <c:h val="0.74741562425116115"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1653,64 +1714,64 @@
                   <c:v>23778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14543</c:v>
+                  <c:v>24712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16982</c:v>
+                  <c:v>27453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18989</c:v>
+                  <c:v>29428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18325</c:v>
+                  <c:v>31594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17390</c:v>
+                  <c:v>32790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17645</c:v>
+                  <c:v>33055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18222</c:v>
+                  <c:v>34124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17941</c:v>
+                  <c:v>34813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10731</c:v>
+                  <c:v>33985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11181</c:v>
+                  <c:v>35313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11779</c:v>
+                  <c:v>36916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8409</c:v>
+                  <c:v>36650</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7027</c:v>
+                  <c:v>35400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6905</c:v>
+                  <c:v>35790</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7094</c:v>
+                  <c:v>35923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7418</c:v>
+                  <c:v>39189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3467</c:v>
+                  <c:v>41550</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3256</c:v>
+                  <c:v>36579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3908</c:v>
+                  <c:v>40629</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2278</c:v>
+                  <c:v>42782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,13 +3891,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6654,13 +6715,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749805B2-64D9-4643-8F81-AD5ABA9B048C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF1" sqref="Z1:AF1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -6727,7 +6792,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6804,7 +6869,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6958,7 +7023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7035,7 +7100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7112,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7189,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7343,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7420,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7497,7 +7562,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7651,7 +7716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7728,7 +7793,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7805,7 +7870,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7882,7 +7947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7959,7 +8024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8036,7 +8101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8113,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8190,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8267,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8344,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8421,7 +8486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8575,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -8652,7 +8717,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8806,7 +8871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -8883,7 +8948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -8960,7 +9025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -9114,7 +9179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -9191,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -9268,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -9345,7 +9410,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -9499,7 +9564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -9576,7 +9641,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -9653,7 +9718,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -9730,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -9807,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -9884,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -9961,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -10038,7 +10103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -10115,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -10192,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -10269,7 +10334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -10423,7 +10488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -10500,7 +10565,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -10654,7 +10719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -10731,7 +10796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -10808,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -10885,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -10962,7 +11027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -11039,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -11116,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -11193,7 +11258,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -11347,7 +11412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -11424,7 +11489,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -11501,7 +11566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -11578,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -11655,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -11732,7 +11797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -11809,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -11886,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -11963,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -12040,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -12117,7 +12182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -12194,7 +12259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -12271,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -12348,7 +12413,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -12502,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -12579,7 +12644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -12656,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -12733,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -12810,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -12887,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -12964,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -13041,7 +13106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -13195,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -13272,7 +13337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -13349,7 +13414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -13426,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -13503,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -13580,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -13657,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -13734,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -13811,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -13888,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -13965,7 +14030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -14042,7 +14107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -14120,6 +14185,27 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y97" xr:uid="{749805B2-64D9-4643-8F81-AD5ABA9B048C}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Condition Improved"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="25"/>
+        <filter val="30"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="81"/>
+        <filter val="87"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14129,7 +14215,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16925,274 +17011,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16B3030-16EB-473B-BE1A-E65060F3DCEB}">
-  <dimension ref="A1:C82"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2002</v>
-      </c>
-      <c r="B2">
-        <v>12081</v>
-      </c>
-      <c r="C2">
-        <v>20454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2003</v>
-      </c>
-      <c r="B3">
-        <v>12425</v>
-      </c>
-      <c r="C3">
-        <v>20884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2004</v>
-      </c>
-      <c r="B4">
-        <v>13497</v>
-      </c>
-      <c r="C4">
-        <v>22374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2005</v>
-      </c>
-      <c r="B5">
-        <v>14292</v>
-      </c>
-      <c r="C5">
-        <v>24721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2006</v>
-      </c>
-      <c r="B6">
-        <v>15187</v>
-      </c>
-      <c r="C6">
-        <v>25972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2007</v>
-      </c>
-      <c r="B7">
-        <v>15041</v>
-      </c>
-      <c r="C7">
-        <v>26551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2008</v>
-      </c>
-      <c r="B8">
-        <v>15231</v>
-      </c>
-      <c r="C8">
-        <v>27499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2009</v>
-      </c>
-      <c r="B9">
-        <v>15651</v>
-      </c>
-      <c r="C9">
-        <v>27848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2010</v>
-      </c>
-      <c r="B10">
-        <v>15926</v>
-      </c>
-      <c r="C10">
-        <v>28603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2011</v>
-      </c>
-      <c r="B11">
-        <v>16081</v>
-      </c>
-      <c r="C11">
-        <v>29570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2012</v>
-      </c>
-      <c r="B12">
-        <v>15864</v>
-      </c>
-      <c r="C12">
-        <v>29738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2013</v>
-      </c>
-      <c r="B13">
-        <v>16329</v>
-      </c>
-      <c r="C13">
-        <v>30863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2014</v>
-      </c>
-      <c r="B14">
-        <v>16759</v>
-      </c>
-      <c r="C14">
-        <v>32406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2015</v>
-      </c>
-      <c r="B15">
-        <v>17756</v>
-      </c>
-      <c r="C15">
-        <v>35060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2016</v>
-      </c>
-      <c r="B16">
-        <v>18956</v>
-      </c>
-      <c r="C16">
-        <v>36386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2017</v>
-      </c>
-      <c r="B17">
-        <v>19749</v>
-      </c>
-      <c r="C17">
-        <v>36928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2018</v>
-      </c>
-      <c r="B18">
-        <v>21071</v>
-      </c>
-      <c r="C18">
-        <v>37758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2019</v>
-      </c>
-      <c r="B19">
-        <v>23301</v>
-      </c>
-      <c r="C19">
-        <v>39421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2020</v>
-      </c>
-      <c r="B20">
-        <v>22733</v>
-      </c>
-      <c r="C20">
-        <v>38159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2021</v>
-      </c>
-      <c r="B21">
-        <v>24550</v>
-      </c>
-      <c r="C21">
-        <v>40024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2022</v>
-      </c>
-      <c r="B22">
-        <v>25393</v>
-      </c>
-      <c r="C22">
-        <v>41350</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
-    <sortCondition ref="A2:A84"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E47515-385F-4689-8E66-B103E20B768C}">
   <dimension ref="A1:D85"/>
   <sheetViews>
@@ -18403,12 +18221,280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16B3030-16EB-473B-BE1A-E65060F3DCEB}">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2002</v>
+      </c>
+      <c r="B2">
+        <v>12081</v>
+      </c>
+      <c r="C2">
+        <v>20454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3">
+        <v>12425</v>
+      </c>
+      <c r="C3">
+        <v>20884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4">
+        <v>13497</v>
+      </c>
+      <c r="C4">
+        <v>22374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5">
+        <v>14292</v>
+      </c>
+      <c r="C5">
+        <v>24721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6">
+        <v>15187</v>
+      </c>
+      <c r="C6">
+        <v>25972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7">
+        <v>15041</v>
+      </c>
+      <c r="C7">
+        <v>26551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8">
+        <v>15231</v>
+      </c>
+      <c r="C8">
+        <v>27499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9">
+        <v>15651</v>
+      </c>
+      <c r="C9">
+        <v>27848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10">
+        <v>15926</v>
+      </c>
+      <c r="C10">
+        <v>28603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11">
+        <v>16081</v>
+      </c>
+      <c r="C11">
+        <v>29570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>15864</v>
+      </c>
+      <c r="C12">
+        <v>29738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>16329</v>
+      </c>
+      <c r="C13">
+        <v>30863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14">
+        <v>16759</v>
+      </c>
+      <c r="C14">
+        <v>32406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>17756</v>
+      </c>
+      <c r="C15">
+        <v>35060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>18956</v>
+      </c>
+      <c r="C16">
+        <v>36386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>19749</v>
+      </c>
+      <c r="C17">
+        <v>36928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18">
+        <v>21071</v>
+      </c>
+      <c r="C18">
+        <v>37758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19">
+        <v>23301</v>
+      </c>
+      <c r="C19">
+        <v>39421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20">
+        <v>22733</v>
+      </c>
+      <c r="C20">
+        <v>38159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21">
+        <v>24550</v>
+      </c>
+      <c r="C21">
+        <v>40024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22">
+        <v>25393</v>
+      </c>
+      <c r="C22">
+        <v>41350</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
+    <sortCondition ref="A2:A84"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6128987-2A49-4F4F-BECB-34A057E573DE}">
   <dimension ref="A1:C1032214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18428,7 +18514,8 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2">
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">SUM(IF(patients!$D$1:$X$1=$A2, patients!$D$2:$X$33))</f>
         <v>23778</v>
       </c>
       <c r="C2" cm="1">
@@ -18440,8 +18527,9 @@
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3">
-        <v>14543</v>
+      <c r="B3" cm="1">
+        <f t="array" ref="B3">SUM(IF(patients!$D$1:$X$1=$A3, patients!$D$2:$X$33))</f>
+        <v>24712</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">20454+SUM(IF(A3=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18452,8 +18540,9 @@
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4">
-        <v>16982</v>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4">SUM(IF(patients!$D$1:$X$1=$A4, patients!$D$2:$X$33))</f>
+        <v>27453</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">20454+SUM(IF(A4=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18464,8 +18553,9 @@
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5">
-        <v>18989</v>
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">SUM(IF(patients!$D$1:$X$1=$A5, patients!$D$2:$X$33))</f>
+        <v>29428</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">20454+SUM(IF(A5=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18476,8 +18566,9 @@
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6">
-        <v>18325</v>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">SUM(IF(patients!$D$1:$X$1=$A6, patients!$D$2:$X$33))</f>
+        <v>31594</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">20454+SUM(IF(A6=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18488,8 +18579,9 @@
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7">
-        <v>17390</v>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">SUM(IF(patients!$D$1:$X$1=$A7, patients!$D$2:$X$33))</f>
+        <v>32790</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">20454+SUM(IF(A7=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18500,8 +18592,9 @@
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8">
-        <v>17645</v>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">SUM(IF(patients!$D$1:$X$1=$A8, patients!$D$2:$X$33))</f>
+        <v>33055</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">20454+SUM(IF(A8=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18512,8 +18605,9 @@
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9">
-        <v>18222</v>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">SUM(IF(patients!$D$1:$X$1=$A9, patients!$D$2:$X$33))</f>
+        <v>34124</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">20454+SUM(IF(A9=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18524,8 +18618,9 @@
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10">
-        <v>17941</v>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">SUM(IF(patients!$D$1:$X$1=$A10, patients!$D$2:$X$33))</f>
+        <v>34813</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">20454+SUM(IF(A10=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18536,8 +18631,9 @@
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11">
-        <v>10731</v>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">SUM(IF(patients!$D$1:$X$1=$A11, patients!$D$2:$X$33))</f>
+        <v>33985</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">20454+SUM(IF(A11=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18548,8 +18644,9 @@
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12">
-        <v>11181</v>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">SUM(IF(patients!$D$1:$X$1=$A12, patients!$D$2:$X$33))</f>
+        <v>35313</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">20454+SUM(IF(A12=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18560,8 +18657,9 @@
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13">
-        <v>11779</v>
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">SUM(IF(patients!$D$1:$X$1=$A13, patients!$D$2:$X$33))</f>
+        <v>36916</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">20454+SUM(IF(A13=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18572,8 +18670,9 @@
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14">
-        <v>8409</v>
+      <c r="B14" cm="1">
+        <f t="array" ref="B14">SUM(IF(patients!$D$1:$X$1=$A14, patients!$D$2:$X$33))</f>
+        <v>36650</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">20454+SUM(IF(A14=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18584,8 +18683,9 @@
       <c r="A15">
         <v>2015</v>
       </c>
-      <c r="B15">
-        <v>7027</v>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">SUM(IF(patients!$D$1:$X$1=$A15, patients!$D$2:$X$33))</f>
+        <v>35400</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">20454+SUM(IF(A15=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18596,8 +18696,9 @@
       <c r="A16">
         <v>2016</v>
       </c>
-      <c r="B16">
-        <v>6905</v>
+      <c r="B16" cm="1">
+        <f t="array" ref="B16">SUM(IF(patients!$D$1:$X$1=$A16, patients!$D$2:$X$33))</f>
+        <v>35790</v>
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">20454+SUM(IF(A16=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18608,8 +18709,9 @@
       <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B17">
-        <v>7094</v>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17">SUM(IF(patients!$D$1:$X$1=$A17, patients!$D$2:$X$33))</f>
+        <v>35923</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">20454+SUM(IF(A17=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18620,8 +18722,9 @@
       <c r="A18">
         <v>2018</v>
       </c>
-      <c r="B18">
-        <v>7418</v>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18">SUM(IF(patients!$D$1:$X$1=$A18, patients!$D$2:$X$33))</f>
+        <v>39189</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">20454+SUM(IF(A18=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18632,8 +18735,9 @@
       <c r="A19">
         <v>2019</v>
       </c>
-      <c r="B19">
-        <v>3467</v>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19">SUM(IF(patients!$D$1:$X$1=$A19, patients!$D$2:$X$33))</f>
+        <v>41550</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">20454+SUM(IF(A19=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18644,8 +18748,9 @@
       <c r="A20">
         <v>2020</v>
       </c>
-      <c r="B20">
-        <v>3256</v>
+      <c r="B20" cm="1">
+        <f t="array" ref="B20">SUM(IF(patients!$D$1:$X$1=$A20, patients!$D$2:$X$33))</f>
+        <v>36579</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">20454+SUM(IF(A20=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18656,8 +18761,9 @@
       <c r="A21">
         <v>2021</v>
       </c>
-      <c r="B21">
-        <v>3908</v>
+      <c r="B21" cm="1">
+        <f t="array" ref="B21">SUM(IF(patients!$D$1:$X$1=$A21, patients!$D$2:$X$33))</f>
+        <v>40629</v>
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">20454+SUM(IF(A21=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -18668,8 +18774,9 @@
       <c r="A22">
         <v>2022</v>
       </c>
-      <c r="B22">
-        <v>2278</v>
+      <c r="B22" cm="1">
+        <f t="array" ref="B22">SUM(IF(patients!$D$1:$X$1=$A22, patients!$D$2:$X$33))</f>
+        <v>42782</v>
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">20454+SUM(IF(A22=trapianti!$D$1:$X$1,trapianti!$D$2:$X$33))</f>
@@ -25304,8 +25411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE00BBF-D95E-4251-ACA9-D94B58DCF175}">
   <dimension ref="A1:C1032214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25326,7 +25433,7 @@
         <v>2002</v>
       </c>
       <c r="B2" cm="1">
-        <f t="array" ref="B2">SUM(IF(patients!$D$1:$X$1=$A2, patients!D2:X33))</f>
+        <f t="array" ref="B2">SUM(IF(patients!$D$1:$X$1=$A2, patients!$D$2:$X$33))</f>
         <v>23778</v>
       </c>
       <c r="C2" cm="1">
@@ -25339,8 +25446,8 @@
         <v>2003</v>
       </c>
       <c r="B3" cm="1">
-        <f t="array" ref="B3">SUM(IF(patients!$D$1:$X$1=$A3, patients!D3:X34))</f>
-        <v>14543</v>
+        <f t="array" ref="B3">SUM(IF(patients!$D$1:$X$1=$A3, patients!$D$2:$X$33))</f>
+        <v>24712</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">SUM(IF(organs!$B$1:$V$1=$A3, organs!$B$2:$V$5))</f>
@@ -25352,8 +25459,8 @@
         <v>2004</v>
       </c>
       <c r="B4" cm="1">
-        <f t="array" ref="B4">SUM(IF(patients!$D$1:$X$1=$A4, patients!D4:X35))</f>
-        <v>16982</v>
+        <f t="array" ref="B4">SUM(IF(patients!$D$1:$X$1=$A4, patients!$D$2:$X$33))</f>
+        <v>27453</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">SUM(IF(organs!$B$1:$V$1=$A4, organs!$B$2:$V$5))</f>
@@ -25365,8 +25472,8 @@
         <v>2005</v>
       </c>
       <c r="B5" cm="1">
-        <f t="array" ref="B5">SUM(IF(patients!$D$1:$X$1=$A5, patients!D5:X36))</f>
-        <v>18989</v>
+        <f t="array" ref="B5">SUM(IF(patients!$D$1:$X$1=$A5, patients!$D$2:$X$33))</f>
+        <v>29428</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">SUM(IF(organs!$B$1:$V$1=$A5, organs!$B$2:$V$5))</f>
@@ -25378,8 +25485,8 @@
         <v>2006</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" ref="B6">SUM(IF(patients!$D$1:$X$1=$A6, patients!D6:X37))</f>
-        <v>18325</v>
+        <f t="array" ref="B6">SUM(IF(patients!$D$1:$X$1=$A6, patients!$D$2:$X$33))</f>
+        <v>31594</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">SUM(IF(organs!$B$1:$V$1=$A6, organs!$B$2:$V$5))</f>
@@ -25391,8 +25498,8 @@
         <v>2007</v>
       </c>
       <c r="B7" cm="1">
-        <f t="array" ref="B7">SUM(IF(patients!$D$1:$X$1=$A7, patients!D7:X38))</f>
-        <v>17390</v>
+        <f t="array" ref="B7">SUM(IF(patients!$D$1:$X$1=$A7, patients!$D$2:$X$33))</f>
+        <v>32790</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">SUM(IF(organs!$B$1:$V$1=$A7, organs!$B$2:$V$5))</f>
@@ -25404,8 +25511,8 @@
         <v>2008</v>
       </c>
       <c r="B8" cm="1">
-        <f t="array" ref="B8">SUM(IF(patients!$D$1:$X$1=$A8, patients!D8:X39))</f>
-        <v>17645</v>
+        <f t="array" ref="B8">SUM(IF(patients!$D$1:$X$1=$A8, patients!$D$2:$X$33))</f>
+        <v>33055</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">SUM(IF(organs!$B$1:$V$1=$A8, organs!$B$2:$V$5))</f>
@@ -25417,8 +25524,8 @@
         <v>2009</v>
       </c>
       <c r="B9" cm="1">
-        <f t="array" ref="B9">SUM(IF(patients!$D$1:$X$1=$A9, patients!D9:X40))</f>
-        <v>18222</v>
+        <f t="array" ref="B9">SUM(IF(patients!$D$1:$X$1=$A9, patients!$D$2:$X$33))</f>
+        <v>34124</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">SUM(IF(organs!$B$1:$V$1=$A9, organs!$B$2:$V$5))</f>
@@ -25430,8 +25537,8 @@
         <v>2010</v>
       </c>
       <c r="B10" cm="1">
-        <f t="array" ref="B10">SUM(IF(patients!$D$1:$X$1=$A10, patients!D10:X41))</f>
-        <v>17941</v>
+        <f t="array" ref="B10">SUM(IF(patients!$D$1:$X$1=$A10, patients!$D$2:$X$33))</f>
+        <v>34813</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">SUM(IF(organs!$B$1:$V$1=$A10, organs!$B$2:$V$5))</f>
@@ -25443,8 +25550,8 @@
         <v>2011</v>
       </c>
       <c r="B11" cm="1">
-        <f t="array" ref="B11">SUM(IF(patients!$D$1:$X$1=$A11, patients!D11:X42))</f>
-        <v>10731</v>
+        <f t="array" ref="B11">SUM(IF(patients!$D$1:$X$1=$A11, patients!$D$2:$X$33))</f>
+        <v>33985</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">SUM(IF(organs!$B$1:$V$1=$A11, organs!$B$2:$V$5))</f>
@@ -25456,8 +25563,8 @@
         <v>2012</v>
       </c>
       <c r="B12" cm="1">
-        <f t="array" ref="B12">SUM(IF(patients!$D$1:$X$1=$A12, patients!D12:X43))</f>
-        <v>11181</v>
+        <f t="array" ref="B12">SUM(IF(patients!$D$1:$X$1=$A12, patients!$D$2:$X$33))</f>
+        <v>35313</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">SUM(IF(organs!$B$1:$V$1=$A12, organs!$B$2:$V$5))</f>
@@ -25469,8 +25576,8 @@
         <v>2013</v>
       </c>
       <c r="B13" cm="1">
-        <f t="array" ref="B13">SUM(IF(patients!$D$1:$X$1=$A13, patients!D13:X44))</f>
-        <v>11779</v>
+        <f t="array" ref="B13">SUM(IF(patients!$D$1:$X$1=$A13, patients!$D$2:$X$33))</f>
+        <v>36916</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">SUM(IF(organs!$B$1:$V$1=$A13, organs!$B$2:$V$5))</f>
@@ -25482,8 +25589,8 @@
         <v>2014</v>
       </c>
       <c r="B14" cm="1">
-        <f t="array" ref="B14">SUM(IF(patients!$D$1:$X$1=$A14, patients!D14:X45))</f>
-        <v>8409</v>
+        <f t="array" ref="B14">SUM(IF(patients!$D$1:$X$1=$A14, patients!$D$2:$X$33))</f>
+        <v>36650</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">SUM(IF(organs!$B$1:$V$1=$A14, organs!$B$2:$V$5))</f>
@@ -25495,8 +25602,8 @@
         <v>2015</v>
       </c>
       <c r="B15" cm="1">
-        <f t="array" ref="B15">SUM(IF(patients!$D$1:$X$1=$A15, patients!D15:X46))</f>
-        <v>7027</v>
+        <f t="array" ref="B15">SUM(IF(patients!$D$1:$X$1=$A15, patients!$D$2:$X$33))</f>
+        <v>35400</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">SUM(IF(organs!$B$1:$V$1=$A15, organs!$B$2:$V$5))</f>
@@ -25508,8 +25615,8 @@
         <v>2016</v>
       </c>
       <c r="B16" cm="1">
-        <f t="array" ref="B16">SUM(IF(patients!$D$1:$X$1=$A16, patients!D16:X47))</f>
-        <v>6905</v>
+        <f t="array" ref="B16">SUM(IF(patients!$D$1:$X$1=$A16, patients!$D$2:$X$33))</f>
+        <v>35790</v>
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">SUM(IF(organs!$B$1:$V$1=$A16, organs!$B$2:$V$5))</f>
@@ -25521,8 +25628,8 @@
         <v>2017</v>
       </c>
       <c r="B17" cm="1">
-        <f t="array" ref="B17">SUM(IF(patients!$D$1:$X$1=$A17, patients!D17:X48))</f>
-        <v>7094</v>
+        <f t="array" ref="B17">SUM(IF(patients!$D$1:$X$1=$A17, patients!$D$2:$X$33))</f>
+        <v>35923</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">SUM(IF(organs!$B$1:$V$1=$A17, organs!$B$2:$V$5))</f>
@@ -25534,8 +25641,8 @@
         <v>2018</v>
       </c>
       <c r="B18" cm="1">
-        <f t="array" ref="B18">SUM(IF(patients!$D$1:$X$1=$A18, patients!D18:X49))</f>
-        <v>7418</v>
+        <f t="array" ref="B18">SUM(IF(patients!$D$1:$X$1=$A18, patients!$D$2:$X$33))</f>
+        <v>39189</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">SUM(IF(organs!$B$1:$V$1=$A18, organs!$B$2:$V$5))</f>
@@ -25547,8 +25654,8 @@
         <v>2019</v>
       </c>
       <c r="B19" cm="1">
-        <f t="array" ref="B19">SUM(IF(patients!$D$1:$X$1=$A19, patients!D19:X50))</f>
-        <v>3467</v>
+        <f t="array" ref="B19">SUM(IF(patients!$D$1:$X$1=$A19, patients!$D$2:$X$33))</f>
+        <v>41550</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">SUM(IF(organs!$B$1:$V$1=$A19, organs!$B$2:$V$5))</f>
@@ -25560,8 +25667,8 @@
         <v>2020</v>
       </c>
       <c r="B20" cm="1">
-        <f t="array" ref="B20">SUM(IF(patients!$D$1:$X$1=$A20, patients!D20:X51))</f>
-        <v>3256</v>
+        <f t="array" ref="B20">SUM(IF(patients!$D$1:$X$1=$A20, patients!$D$2:$X$33))</f>
+        <v>36579</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">SUM(IF(organs!$B$1:$V$1=$A20, organs!$B$2:$V$5))</f>
@@ -25573,8 +25680,8 @@
         <v>2021</v>
       </c>
       <c r="B21" cm="1">
-        <f t="array" ref="B21">SUM(IF(patients!$D$1:$X$1=$A21, patients!D21:X52))</f>
-        <v>3908</v>
+        <f t="array" ref="B21">SUM(IF(patients!$D$1:$X$1=$A21, patients!$D$2:$X$33))</f>
+        <v>40629</v>
       </c>
       <c r="C21" cm="1">
         <f t="array" ref="C21">SUM(IF(organs!$B$1:$V$1=$A21, organs!$B$2:$V$5))</f>
@@ -25586,8 +25693,8 @@
         <v>2022</v>
       </c>
       <c r="B22" cm="1">
-        <f t="array" ref="B22">SUM(IF(patients!$D$1:$X$1=$A22, patients!D22:X53))</f>
-        <v>2278</v>
+        <f t="array" ref="B22">SUM(IF(patients!$D$1:$X$1=$A22, patients!$D$2:$X$33))</f>
+        <v>42782</v>
       </c>
       <c r="C22" cm="1">
         <f t="array" ref="C22">SUM(IF(organs!$B$1:$V$1=$A22, organs!$B$2:$V$5))</f>
